--- a/modèle bayésien/Modèle bayésien (simulation).xlsx
+++ b/modèle bayésien/Modèle bayésien (simulation).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maud Otello\Documents\cours_r\Stage_M2\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maud Otello\Documents\cours_r\Stage_M2\script\modèle bayésien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6490"/>
   </bookViews>
   <sheets>
     <sheet name="Modèle" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>Modèle</t>
   </si>
@@ -421,6 +421,39 @@
   </si>
   <si>
     <t>Everything is OK</t>
+  </si>
+  <si>
+    <t>fit_heatmap</t>
+  </si>
+  <si>
+    <t>Sortir Y_pred qui prend en compte G et DBH pour faire à la suite un heatmap</t>
+  </si>
+  <si>
+    <t>m_heatmap</t>
+  </si>
+  <si>
+    <t>Y = softmax(alpha + beta*X_cr[n] + gamma*(X_cr[n])^2 + delta*Z_cr[n]+ epsilon*(Z_cr[n])^2)</t>
+  </si>
+  <si>
+    <t>8h23,10h43 ordi plante</t>
+  </si>
+  <si>
+    <t>Après avoir fait tourner les chaines il a du mal et s'arrête</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Foireux car seulement 10 itération qui ne permet pas. L'extraction des Y_préd prend vraiment bcp de temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortir Y_pred qui prend en compte G et DBH pour faire à la suite un heatmap (réduction du nombre de Z_pred (0.1) et X_pred (5) calculer </t>
+  </si>
+  <si>
+    <t>ça va beaucoup plus vite. Il converge même si R dit que non moi je trouve que une RHAT de 1.08 c'est bien.</t>
+  </si>
+  <si>
+    <t>6min</t>
   </si>
 </sst>
 </file>
@@ -836,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1618,6 +1651,120 @@
       </c>
       <c r="L24" s="13" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2">
+        <v>100</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2">
+        <v>100</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/modèle bayésien/Modèle bayésien (simulation).xlsx
+++ b/modèle bayésien/Modèle bayésien (simulation).xlsx
@@ -16,7 +16,7 @@
     <sheet name="Légende" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modèle!$A$1:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modèle!$A$1:$L$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>Modèle</t>
   </si>
@@ -102,9 +102,6 @@
     <t>BD_JV_1</t>
   </si>
   <si>
-    <t>m_3.stan</t>
-  </si>
-  <si>
     <t>Est-ce que un modèle non linéaire prédit mieux la présence de Pradosia et Vouacapou au tempérament changeant ?</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>BD_VP_2</t>
-  </si>
-  <si>
-    <t>BD_VP_2_CHM</t>
   </si>
   <si>
     <t>BD_JQ_G</t>
@@ -429,9 +423,6 @@
     <t>Sortir Y_pred qui prend en compte G et DBH pour faire à la suite un heatmap</t>
   </si>
   <si>
-    <t>m_heatmap</t>
-  </si>
-  <si>
     <t>Y = softmax(alpha + beta*X_cr[n] + gamma*(X_cr[n])^2 + delta*Z_cr[n]+ epsilon*(Z_cr[n])^2)</t>
   </si>
   <si>
@@ -450,17 +441,65 @@
     <t xml:space="preserve">Sortir Y_pred qui prend en compte G et DBH pour faire à la suite un heatmap (réduction du nombre de Z_pred (0.1) et X_pred (5) calculer </t>
   </si>
   <si>
-    <t>ça va beaucoup plus vite. Il converge même si R dit que non moi je trouve que une RHAT de 1.08 c'est bien.</t>
-  </si>
-  <si>
     <t>6min</t>
+  </si>
+  <si>
+    <t>ça va beaucoup plus vite. Il converge même si R dit que non moi je trouve que une RHAT de 1.08 c'est bien. J'ai réussi !!! La définition du graphique ggplot n'est pas le plus optimum en terme de dbh on va refaire le graphe avec plus d'intervalles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortir Y_pred qui prend en compte G et DBH pour faire à la suite un heatmap (réduction du nombre de Z_pred (0.1) et X_pred (1) calculer </t>
+  </si>
+  <si>
+    <t>On s'attend à 20min de process (9h37)</t>
+  </si>
+  <si>
+    <t>Obtenir l'abondance initiale de chaque espèce</t>
+  </si>
+  <si>
+    <t>fit_alpha_CHM</t>
+  </si>
+  <si>
+    <t>BD_CHM</t>
+  </si>
+  <si>
+    <t>2009,2013,2016</t>
+  </si>
+  <si>
+    <t>Oui ça coincide bien.</t>
+  </si>
+  <si>
+    <t>m_heatmap.stan</t>
+  </si>
+  <si>
+    <t>Comment varie nos prédictions  d'appartenance à une espèce en fonction de la hauteur de canopée ? (courbe)</t>
+  </si>
+  <si>
+    <t>Comment varie nos prédictions  d'appartenance à une espèce en fonction de la hauteur de canopée ? (heatmap)</t>
+  </si>
+  <si>
+    <t>Modèle CHM</t>
+  </si>
+  <si>
+    <t>fit_complet_CHM</t>
+  </si>
+  <si>
+    <t>fit_heatmap_CHM</t>
+  </si>
+  <si>
+    <t>Les distributions varient grandement pour Qualea rosea, mais cela pourrait provenir du fait que notre jeu de donnée a été considérable réduit. On le voit nottament aux intervalles de confiances.</t>
+  </si>
+  <si>
+    <t>&gt;20min</t>
+  </si>
+  <si>
+    <t>Les résultats se rapprochent bcp de ce qu'on avit pu observé avec a surface terrière mais avec plus de nuance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +536,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -542,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -583,6 +634,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -869,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -897,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -918,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -932,16 +993,16 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
@@ -965,21 +1026,21 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
@@ -991,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="5">
         <v>6</v>
@@ -1003,12 +1064,12 @@
         <v>2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -1017,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -1041,12 +1102,12 @@
         <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1055,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -1079,12 +1140,12 @@
         <v>5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -1093,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
@@ -1117,12 +1178,12 @@
         <v>11</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -1131,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -1155,33 +1216,33 @@
         <v>20</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -1193,33 +1254,33 @@
         <v>10</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1231,12 +1292,12 @@
         <v>2</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1245,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>23</v>
@@ -1269,30 +1330,30 @@
         <v>2</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>6</v>
@@ -1307,33 +1368,33 @@
         <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -1345,30 +1406,30 @@
         <v>2</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
@@ -1383,30 +1444,30 @@
         <v>2</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
@@ -1421,18 +1482,21 @@
         <v>2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
@@ -1441,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
@@ -1458,28 +1522,28 @@
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -1491,30 +1555,30 @@
         <v>3</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>6</v>
@@ -1529,82 +1593,100 @@
         <v>3</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="C19" s="3" t="s">
+      <c r="A18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A19" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="17">
+        <v>6</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="59" x14ac:dyDescent="0.75">
-      <c r="C20" s="3" t="s">
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="59" x14ac:dyDescent="0.75">
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="C21" s="3" t="s">
+      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
@@ -1617,25 +1699,25 @@
     </row>
     <row r="24" spans="1:12" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.75">
       <c r="A24" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>6</v>
@@ -1647,128 +1729,239 @@
         <v>100</v>
       </c>
       <c r="K24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="13" t="s">
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13">
+        <v>100</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="L25" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="13">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13">
+        <v>6</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="L26" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="13" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13">
+        <v>6</v>
+      </c>
+      <c r="J27" s="13">
+        <v>100</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="13" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13">
-        <v>6</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="B28" s="13">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A26" s="2" t="s">
+      <c r="G28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="13">
+        <v>6</v>
+      </c>
+      <c r="J28" s="13">
+        <v>100</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A29" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="13">
-        <v>6</v>
-      </c>
-      <c r="J26" s="2">
-        <v>10</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="E29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6</v>
+      </c>
+      <c r="J29" s="18">
+        <v>100</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A27" s="2" t="s">
+      <c r="L29" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A30" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="13">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="E30" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="18">
+        <v>6</v>
+      </c>
+      <c r="J30" s="18">
         <v>100</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>115</v>
+      <c r="K30" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L23"/>
+  <autoFilter ref="A1:L28"/>
   <mergeCells count="1">
     <mergeCell ref="A18:L18"/>
   </mergeCells>
@@ -1779,35 +1972,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="9"/>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="15"/>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
